--- a/output/StructureDefinition-Observation-Key-Pop.xlsx
+++ b/output/StructureDefinition-Observation-Key-Pop.xlsx
@@ -792,7 +792,7 @@
     <t>valueCodeableConcept</t>
   </si>
   <si>
-    <t>http://example.org/fhir/fish/ValueSet/KeyPopValues</t>
+    <t>http://regenstrief.org/fhir/ValueSet/KeyPopValues</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason</t>
